--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omar\Glance Project Docs\GlanceAutomation\GlanceAutomationTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -425,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,8 +588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8790" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AddProject" sheetId="3" r:id="rId3"/>
+    <sheet name="LockScreen" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <oleSize ref="A1:L17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Metric</t>
   </si>
@@ -102,6 +104,57 @@
   </si>
   <si>
     <t>Affinion</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ClientProjectID</t>
+  </si>
+  <si>
+    <t>EngagementName</t>
+  </si>
+  <si>
+    <t>ApplicationName</t>
+  </si>
+  <si>
+    <t>FundingStartDate</t>
+  </si>
+  <si>
+    <t>FundingEndDate</t>
+  </si>
+  <si>
+    <t>ReleaseDate</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>MIT</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>Customer support System</t>
+  </si>
+  <si>
+    <t>25/06/2017</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>$MIT$</t>
+  </si>
+  <si>
+    <t>#123#</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>mypass</t>
   </si>
 </sst>
 </file>
@@ -137,8 +190,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,7 +483,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,11 +649,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="6" width="33.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -667,4 +735,211 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2">
+        <v>42742</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2">
+        <v>42742</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2">
+        <v>42742</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2">
+        <v>42742</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2">
+        <v>43009</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2">
+        <v>42742</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,15 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sachini\Glance\Glance Automation\GlanceAutomationTests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="EntityData" sheetId="3" r:id="rId3"/>
+    <sheet name="DateRange" sheetId="4" r:id="rId4"/>
+    <sheet name="EngagementData" sheetId="5" r:id="rId5"/>
+    <sheet name="SearchData" sheetId="6" r:id="rId6"/>
+    <sheet name="SQLData" sheetId="7" r:id="rId7"/>
+    <sheet name="DeleteSearchData" sheetId="8" r:id="rId8"/>
+    <sheet name="ShowEntryData" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Metric</t>
   </si>
@@ -102,6 +113,111 @@
   </si>
   <si>
     <t>Affinion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entity </t>
+  </si>
+  <si>
+    <t>Engagement</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Last 7 days</t>
+  </si>
+  <si>
+    <t>Last 30 days</t>
+  </si>
+  <si>
+    <t>This Month</t>
+  </si>
+  <si>
+    <t>Last Month</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>EngagementName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Years </t>
+  </si>
+  <si>
+    <t>DeliveryMethod</t>
+  </si>
+  <si>
+    <t>ContractType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account </t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>SQL search</t>
+  </si>
+  <si>
+    <t>SELECT * FROM accounts;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM account</t>
+  </si>
+  <si>
+    <t>EntityID</t>
+  </si>
+  <si>
+    <t>EntityName</t>
+  </si>
+  <si>
+    <t>Home TV</t>
+  </si>
+  <si>
+    <t>ShowEntry</t>
+  </si>
+  <si>
+    <t>DateRange</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Capacity Based</t>
+  </si>
+  <si>
+    <t>Engagement1</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
 </sst>
 </file>
@@ -137,8 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,4 +784,309 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="ProfileUpdateData" sheetId="3" r:id="rId2"/>
+    <sheet name="LoginData" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
+  <oleSize ref="A1:S17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Metric</t>
   </si>
@@ -102,16 +104,72 @@
   </si>
   <si>
     <t>Affinion</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>conpassword</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
+  </si>
+  <si>
+    <t>Anjana</t>
+  </si>
+  <si>
+    <t>Chandrapala</t>
+  </si>
+  <si>
+    <t>mypass</t>
+  </si>
+  <si>
+    <t>admin1</t>
+  </si>
+  <si>
+    <t>admn1@gmail.com</t>
+  </si>
+  <si>
+    <t>Neelamani</t>
+  </si>
+  <si>
+    <t>Login unsuccessfull. Incorrect Login Credentials</t>
+  </si>
+  <si>
+    <t>Account Level Dashboard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,13 +192,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,9 +482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -586,13 +645,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,17 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sachini\Glance\Glance Automation\GlanceAutomationTests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8790" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="8790" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="AddProject" sheetId="3" r:id="rId3"/>
     <sheet name="LockScreen" sheetId="4" r:id="rId4"/>
+    <sheet name="ShowEntryData" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="49">
   <si>
     <t>Metric</t>
   </si>
@@ -155,6 +160,21 @@
   </si>
   <si>
     <t>mypass</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>ShowEntry</t>
   </si>
 </sst>
 </file>
@@ -190,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -200,6 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -942,4 +963,48 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15015" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AccountData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="31">
   <si>
     <t>Metric</t>
   </si>
@@ -102,16 +102,36 @@
   </si>
   <si>
     <t>Affinion</t>
+  </si>
+  <si>
+    <t>Segment</t>
+  </si>
+  <si>
+    <t>Abc</t>
+  </si>
+  <si>
+    <t>Telco</t>
+  </si>
+  <si>
+    <t>A@bc&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,13 +154,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -411,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,7 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -667,4 +690,51 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omar\Glance Project Docs\GlanceAutomation\GlanceAutomationTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janani\Glance\Glance Automation\GlanceAutomationTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="GL_UM_02" sheetId="2" r:id="rId2"/>
+    <sheet name="GL_UM_08" sheetId="3" r:id="rId3"/>
+    <sheet name="GL_UM_09_1" sheetId="4" r:id="rId4"/>
+    <sheet name="GL_UM_09_2" sheetId="6" r:id="rId5"/>
+    <sheet name="GL_UM_12" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Metric</t>
   </si>
@@ -106,19 +110,115 @@
   </si>
   <si>
     <t>Affinion</t>
+  </si>
+  <si>
+    <t>ColomName</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>User Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Job Role</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Oshadha</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Wijesooriya</t>
+  </si>
+  <si>
+    <t>keyWord</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>Pagination</t>
+  </si>
+  <si>
+    <t>dropDownValue</t>
+  </si>
+  <si>
+    <t>searchResult</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>MiddlePagination</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +229,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,12 +237,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,85 +718,253 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="A1:K2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="7"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janani\Glance\Glance Automation\GlanceAutomationTests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,8 @@
     <sheet name="GL_UM_09_2" sheetId="6" r:id="rId5"/>
     <sheet name="GL_UM_12" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -720,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,8 +887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Janani\Glance\Glance Automation\GlanceAutomationTests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,6 @@
     <sheet name="GL_UM_12" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -252,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -265,8 +269,14 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -716,7 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -786,7 +796,7 @@
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="10">
         <v>2</v>
       </c>
     </row>
@@ -794,7 +804,7 @@
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -802,7 +812,7 @@
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="10">
         <v>8</v>
       </c>
     </row>
@@ -810,7 +820,7 @@
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="10">
         <v>5</v>
       </c>
     </row>
@@ -818,7 +828,7 @@
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
     </row>
@@ -826,7 +836,7 @@
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="10">
         <v>1</v>
       </c>
     </row>
@@ -840,7 +850,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +873,7 @@
       <c r="A3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -875,7 +885,7 @@
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,36 +898,37 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -925,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,22 +951,22 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="10" t="s">
         <v>53</v>
       </c>
     </row>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4860" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="4860" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ChartData" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Metric</t>
   </si>
@@ -170,27 +170,6 @@
   </si>
   <si>
     <t>11</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>100</t>
   </si>
   <si>
     <t>MiddlePagination</t>
@@ -270,13 +249,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,20 +754,20 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -796,7 +775,7 @@
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
     </row>
@@ -804,7 +783,7 @@
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
     </row>
@@ -812,7 +791,7 @@
       <c r="A4" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>8</v>
       </c>
     </row>
@@ -820,7 +799,7 @@
       <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="8">
         <v>5</v>
       </c>
     </row>
@@ -828,7 +807,7 @@
       <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
     </row>
@@ -836,12 +815,13 @@
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -897,33 +877,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
+      <c r="A1" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>47</v>
+      <c r="A2" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
+      <c r="A3" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>49</v>
+      <c r="A4" s="11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -936,38 +916,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>53</v>
+      <c r="A5" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
